--- a/config_ios/fish_boss_yutu_random_2.xlsx
+++ b/config_ios/fish_boss_yutu_random_2.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="71">
   <si>
     <t>change_time_max</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -300,15 +300,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>43,44,45</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>53,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>82,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>43,44,45</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1014,7 +1010,7 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1121,7 +1117,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C6" s="11">
         <v>80</v>
@@ -1176,16 +1172,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C9" s="11">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="D9" s="11">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
